--- a/artfynd/A 50118-2022.xlsx
+++ b/artfynd/A 50118-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81397445</v>
+        <v>81397446</v>
       </c>
       <c r="B2" t="n">
         <v>103346</v>
@@ -720,14 +720,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Näsum, Hejabacken, Sk</t>
+          <t>Hejabacken, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465171.8907218116</v>
+        <v>465267.8687842482</v>
       </c>
       <c r="R2" t="n">
-        <v>6222285.635336139</v>
+        <v>6222143.925440002</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2008-05-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2008-05-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,6 +782,11 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Bokskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
@@ -790,10 +795,131 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
+          <t>Krister Håkansson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Skånes Flora Millora 2008-2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>81397445</v>
+      </c>
+      <c r="B3" t="n">
+        <v>103346</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>221423</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Galium odoratum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.) Scop.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Näsum, Hejabacken, Sk</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>465171.8907218116</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6222285.635336139</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Bromölla</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Näsum</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2014-07-24</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2014-07-24</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Charlotte Wigermo</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
           <t>Via Charlotte Wigermo</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Skånes Flora Millora 2008-2015</t>
         </is>
